--- a/HansoInputTool/data/Template.xlsx
+++ b/HansoInputTool/data/Template.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ligdoor\Desktop\搬送入力アプリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ligdoor\source\repos\HansoInputTool\HansoInputTool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CA6E1-AF92-432D-BCD5-B8AB0A637600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFEF4D-7655-4B46-B4AE-4203C91FD0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="851" xr2:uid="{9907BF79-DA50-4ABF-B904-AD46E9F9FA08}"/>
   </bookViews>
   <sheets>
-    <sheet name="寝台車 29" sheetId="1" r:id="rId1"/>
-    <sheet name="寝台車 30" sheetId="2" r:id="rId2"/>
-    <sheet name="大月 寝台車 1603" sheetId="5" r:id="rId3"/>
-    <sheet name="CH東富士 寝台車 1105" sheetId="6" r:id="rId4"/>
-    <sheet name="CH東富士 霊柩車 1381" sheetId="7" r:id="rId5"/>
-    <sheet name="霊柩車 40" sheetId="3" r:id="rId6"/>
-    <sheet name="霊柩車 223" sheetId="4" r:id="rId7"/>
-    <sheet name="東日本セレモニー 2" sheetId="14" r:id="rId8"/>
-    <sheet name="東日本セレモニー 1961" sheetId="9" r:id="rId9"/>
-    <sheet name="東日本セレモニー 2259" sheetId="10" r:id="rId10"/>
-    <sheet name="東日本セレモニー 2262" sheetId="11" r:id="rId11"/>
-    <sheet name="東日本セレモニー 2380" sheetId="12" r:id="rId12"/>
-    <sheet name="月間集計" sheetId="13" r:id="rId13"/>
+    <sheet name="月間集計" sheetId="13" r:id="rId1"/>
+    <sheet name="寝台車 29" sheetId="1" r:id="rId2"/>
+    <sheet name="寝台車 30" sheetId="2" r:id="rId3"/>
+    <sheet name="大月 寝台車 1603" sheetId="5" r:id="rId4"/>
+    <sheet name="CH東富士 寝台車 1105" sheetId="6" r:id="rId5"/>
+    <sheet name="CH東富士 霊柩車 1381" sheetId="7" r:id="rId6"/>
+    <sheet name="霊柩車 40" sheetId="3" r:id="rId7"/>
+    <sheet name="霊柩車 223" sheetId="4" r:id="rId8"/>
+    <sheet name="東日本セレモニー 2" sheetId="14" r:id="rId9"/>
+    <sheet name="東日本セレモニー 1961" sheetId="9" r:id="rId10"/>
+    <sheet name="東日本セレモニー 2259" sheetId="10" r:id="rId11"/>
+    <sheet name="東日本セレモニー 2262" sheetId="11" r:id="rId12"/>
+    <sheet name="東日本セレモニー 2380" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="39">
   <si>
     <t>月分</t>
     <rPh sb="0" eb="2">
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t>東日本</t>
-  </si>
-  <si>
-    <t>R8</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -6350,6 +6346,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33CAFF"/>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6362,134 +6364,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21EA5AB9-6A59-4950-A1A7-4B994A29544D}" name="寝台車_29" displayName="寝台車_29" ref="A3:K6" totalsRowShown="0" headerRowDxfId="194" dataDxfId="192" headerRowBorderDxfId="193" tableBorderDxfId="191">
-  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7A1A0890-22B0-418E-A411-4081E86EB01D}" name="台数" dataDxfId="190"/>
-    <tableColumn id="2" xr3:uid="{42577A3C-BC63-4586-AE2E-79714BE10C6D}" name="支社名" dataDxfId="189"/>
-    <tableColumn id="3" xr3:uid="{3F4C502F-6815-4780-AE11-D81A9297002F}" name="車輌番号" dataDxfId="188"/>
-    <tableColumn id="4" xr3:uid="{56ED98D2-56B3-4817-9809-A47B38B9A68D}" name="延実在_x000a_車輌数" dataDxfId="187"/>
-    <tableColumn id="5" xr3:uid="{74E58D0D-9D8E-4B0C-94C4-4E67BE17F124}" name="延実働_x000a_車輌数" dataDxfId="186"/>
-    <tableColumn id="6" xr3:uid="{24A119D3-A426-4F7A-AFCE-7A60CABF300E}" name="稼働率" dataDxfId="185" dataCellStyle="パーセント"/>
-    <tableColumn id="7" xr3:uid="{A9359F17-4E82-4DB4-9FCF-D3A22BC43A8B}" name="搬送回数" dataDxfId="184"/>
-    <tableColumn id="8" xr3:uid="{CFEB1932-8994-43DD-9616-948C3D4A2BD0}" name="有料キロ数" dataDxfId="183"/>
-    <tableColumn id="9" xr3:uid="{0925EE59-52DB-499C-9F73-EBA8BA10B522}" name="無料キロ数" dataDxfId="182"/>
-    <tableColumn id="10" xr3:uid="{4F952C16-6614-45AA-A9B1-7E88193F4D06}" name="総走行ｋｍ" dataDxfId="181"/>
-    <tableColumn id="11" xr3:uid="{E988F274-8E1C-402E-88AB-984923B60C56}" name="運輸実績" dataDxfId="180"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{06245960-EB41-4DA2-A9B2-ACFEFF2E18CD}" name="東日本セレモニー_2259" displayName="東日本セレモニー_2259" ref="A3:K6" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
-  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BA2538BC-FD5D-4458-81E5-17C9D75F2EF5}" name="台数" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{53C41AFE-B75E-4A0D-87A2-859DDF58A9E0}" name="支社名" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{731BBDFA-C2B9-4B9D-B100-98E7F8AA204C}" name="車輌番号" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{A9F4467F-F404-4B19-B860-BB4A323FB916}" name="延実在_x000a_車輌数" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{F6430A15-E4B0-4AF6-9EB5-D630EECBC778}" name="延実働_x000a_車輌数" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{D8037DA3-5285-4165-A095-7162A2EA9CBC}" name="稼働率" dataDxfId="50" dataCellStyle="パーセント"/>
-    <tableColumn id="7" xr3:uid="{3C938316-F962-4A17-9746-412D490B2109}" name="搬送回数" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{46EC520A-77FC-4369-94A9-5DF0193EA9D7}" name="有料キロ数" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{82321FF6-5CA5-4C1A-8EE0-BFDF2E645BB7}" name="無料キロ数" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{DF4A69D4-D74E-4DE3-BF88-43910DB47ED2}" name="総走行ｋｍ" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{3F5F0763-7AAA-4276-8432-B7A8337D49BB}" name="運輸実績" dataDxfId="45"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1D0313D3-F4BE-4B9E-B9F2-9233EEA2E756}" name="東日本セレモニー_2262" displayName="東日本セレモニー_2262" ref="A3:K6" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
-  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DA912551-9F38-42BC-AC11-C7A88712F572}" name="台数" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{55C11A8E-0922-4C96-A09A-3E081B16CBC0}" name="支社名" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{AC0C2718-DD08-40A7-851C-C763DBDD67C6}" name="車輌番号" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{83D7B484-BA42-4265-B1E6-5C84A32EA4C5}" name="延実在_x000a_車輌数" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{C6E18EB0-9D18-4599-9638-F1FDA8472A22}" name="延実働_x000a_車輌数" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{F4E1CF22-13BD-4746-83EA-54A10878DC52}" name="稼働率" dataDxfId="35" dataCellStyle="パーセント"/>
-    <tableColumn id="7" xr3:uid="{E834B578-BE18-4145-87AF-9DDF4CDAD0F9}" name="搬送回数" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{0143572F-8703-49EA-A1BD-D4DE4CDD274D}" name="有料キロ数" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{7D98F128-AA80-401C-98D7-50F8CBC1B7AE}" name="無料キロ数" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{9E94765C-10F4-4DB7-B5D8-5562D200EFE5}" name="総走行ｋｍ" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{F836549E-F5FA-41A9-99A9-BED8D5B393A1}" name="運輸実績" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E48C36F4-7896-4044-8214-BE20E197CD86}" name="東日本セレモニー_2380" displayName="東日本セレモニー_2380" ref="A3:K6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E52FF2E5-245D-4098-B378-98C5F25DEDD1}" name="台数" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6DAD055A-4EEC-4566-8B4D-C359F9F25167}" name="支社名" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{66A9C54F-AA3D-4F79-925C-91DA97E1C060}" name="車輌番号" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{34E9431A-685C-400D-9692-BBBD77A6A0D4}" name="延実在_x000a_車輌数" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{58540C74-B808-48E1-A50D-BA35DE4F362D}" name="延実働_x000a_車輌数" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{6C77D977-97D8-46CB-BDA1-7F90E5A57DFF}" name="稼働率" dataDxfId="20" dataCellStyle="パーセント"/>
-    <tableColumn id="7" xr3:uid="{15ED5B95-6BF2-43A8-A632-411C8E7974C0}" name="搬送回数" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{23CBAA38-5F44-4BF4-9586-79DE8E201C8D}" name="有料キロ数" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{BC2E5920-063D-44B9-8EFC-0F200BFC6D50}" name="無料キロ数" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{5FE443E0-1F42-44C4-B70A-A0F71C14C23A}" name="総走行ｋｍ" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{AA649011-A485-4369-91CB-88B3CF6D20EC}" name="運輸実績" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{8EDFC59E-E789-4EDE-B3DA-C89B5556E697}" name="月間集計" displayName="月間集計" ref="A3:K16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A3:K16" xr:uid="{C5551C74-76F4-49E3-950C-915D58B09461}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6523,7 +6397,167 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AFE22A0D-FA46-46D6-9FFB-7033D17E58FD}" name="東日本セレモニー_1961" displayName="東日本セレモニー_1961" ref="A3:K6" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{4A673E26-F92A-4223-B3AC-69A15883F006}" name="台数" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{EDEDD639-E2CA-402D-B5B3-021F65781566}" name="支社名" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{E0F00521-4BBA-4D80-9E91-876D7A8DCE92}" name="車輌番号" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{F516BE77-ECCC-4533-9EE0-AB4DE1B84AC3}" name="延実在_x000a_車輌数" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{A88FFFE3-536D-419F-86D8-F7CF2ECF6292}" name="延実働_x000a_車輌数" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{3FD098F5-8FA4-4C4A-BDDC-2CF92D143F3F}" name="稼働率" dataDxfId="65" dataCellStyle="パーセント"/>
+    <tableColumn id="7" xr3:uid="{FB011EF7-24CA-4985-92DD-411DB056B9FC}" name="搬送回数" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{069EA530-DAAE-42CC-9D76-4D8FF60F1515}" name="有料キロ数" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{66F9931E-5F04-417B-8C7B-B983D5569558}" name="無料キロ数" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{900D53FA-7C6A-4077-82EA-5469F3390B77}" name="総走行ｋｍ" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{750CED73-032B-4E83-B122-C173589F46AE}" name="運輸実績" dataDxfId="60"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{06245960-EB41-4DA2-A9B2-ACFEFF2E18CD}" name="東日本セレモニー_2259" displayName="東日本セレモニー_2259" ref="A3:K6" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BA2538BC-FD5D-4458-81E5-17C9D75F2EF5}" name="台数" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{53C41AFE-B75E-4A0D-87A2-859DDF58A9E0}" name="支社名" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{731BBDFA-C2B9-4B9D-B100-98E7F8AA204C}" name="車輌番号" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{A9F4467F-F404-4B19-B860-BB4A323FB916}" name="延実在_x000a_車輌数" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{F6430A15-E4B0-4AF6-9EB5-D630EECBC778}" name="延実働_x000a_車輌数" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{D8037DA3-5285-4165-A095-7162A2EA9CBC}" name="稼働率" dataDxfId="50" dataCellStyle="パーセント"/>
+    <tableColumn id="7" xr3:uid="{3C938316-F962-4A17-9746-412D490B2109}" name="搬送回数" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{46EC520A-77FC-4369-94A9-5DF0193EA9D7}" name="有料キロ数" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{82321FF6-5CA5-4C1A-8EE0-BFDF2E645BB7}" name="無料キロ数" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{DF4A69D4-D74E-4DE3-BF88-43910DB47ED2}" name="総走行ｋｍ" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{3F5F0763-7AAA-4276-8432-B7A8337D49BB}" name="運輸実績" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1D0313D3-F4BE-4B9E-B9F2-9233EEA2E756}" name="東日本セレモニー_2262" displayName="東日本セレモニー_2262" ref="A3:K6" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{DA912551-9F38-42BC-AC11-C7A88712F572}" name="台数" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{55C11A8E-0922-4C96-A09A-3E081B16CBC0}" name="支社名" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{AC0C2718-DD08-40A7-851C-C763DBDD67C6}" name="車輌番号" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{83D7B484-BA42-4265-B1E6-5C84A32EA4C5}" name="延実在_x000a_車輌数" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{C6E18EB0-9D18-4599-9638-F1FDA8472A22}" name="延実働_x000a_車輌数" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{F4E1CF22-13BD-4746-83EA-54A10878DC52}" name="稼働率" dataDxfId="35" dataCellStyle="パーセント"/>
+    <tableColumn id="7" xr3:uid="{E834B578-BE18-4145-87AF-9DDF4CDAD0F9}" name="搬送回数" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{0143572F-8703-49EA-A1BD-D4DE4CDD274D}" name="有料キロ数" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{7D98F128-AA80-401C-98D7-50F8CBC1B7AE}" name="無料キロ数" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{9E94765C-10F4-4DB7-B5D8-5562D200EFE5}" name="総走行ｋｍ" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{F836549E-F5FA-41A9-99A9-BED8D5B393A1}" name="運輸実績" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E48C36F4-7896-4044-8214-BE20E197CD86}" name="東日本セレモニー_2380" displayName="東日本セレモニー_2380" ref="A3:K6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{E52FF2E5-245D-4098-B378-98C5F25DEDD1}" name="台数" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6DAD055A-4EEC-4566-8B4D-C359F9F25167}" name="支社名" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{66A9C54F-AA3D-4F79-925C-91DA97E1C060}" name="車輌番号" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{34E9431A-685C-400D-9692-BBBD77A6A0D4}" name="延実在_x000a_車輌数" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{58540C74-B808-48E1-A50D-BA35DE4F362D}" name="延実働_x000a_車輌数" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{6C77D977-97D8-46CB-BDA1-7F90E5A57DFF}" name="稼働率" dataDxfId="20" dataCellStyle="パーセント"/>
+    <tableColumn id="7" xr3:uid="{15ED5B95-6BF2-43A8-A632-411C8E7974C0}" name="搬送回数" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{23CBAA38-5F44-4BF4-9586-79DE8E201C8D}" name="有料キロ数" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{BC2E5920-063D-44B9-8EFC-0F200BFC6D50}" name="無料キロ数" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{5FE443E0-1F42-44C4-B70A-A0F71C14C23A}" name="総走行ｋｍ" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{AA649011-A485-4369-91CB-88B3CF6D20EC}" name="運輸実績" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21EA5AB9-6A59-4950-A1A7-4B994A29544D}" name="寝台車_29" displayName="寝台車_29" ref="A3:K6" totalsRowShown="0" headerRowDxfId="194" dataDxfId="192" headerRowBorderDxfId="193" tableBorderDxfId="191">
+  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7A1A0890-22B0-418E-A411-4081E86EB01D}" name="台数" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{42577A3C-BC63-4586-AE2E-79714BE10C6D}" name="支社名" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{3F4C502F-6815-4780-AE11-D81A9297002F}" name="車輌番号" dataDxfId="188"/>
+    <tableColumn id="4" xr3:uid="{56ED98D2-56B3-4817-9809-A47B38B9A68D}" name="延実在_x000a_車輌数" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{74E58D0D-9D8E-4B0C-94C4-4E67BE17F124}" name="延実働_x000a_車輌数" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{24A119D3-A426-4F7A-AFCE-7A60CABF300E}" name="稼働率" dataDxfId="185" dataCellStyle="パーセント"/>
+    <tableColumn id="7" xr3:uid="{A9359F17-4E82-4DB4-9FCF-D3A22BC43A8B}" name="搬送回数" dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{CFEB1932-8994-43DD-9616-948C3D4A2BD0}" name="有料キロ数" dataDxfId="183"/>
+    <tableColumn id="9" xr3:uid="{0925EE59-52DB-499C-9F73-EBA8BA10B522}" name="無料キロ数" dataDxfId="182"/>
+    <tableColumn id="10" xr3:uid="{4F952C16-6614-45AA-A9B1-7E88193F4D06}" name="総走行ｋｍ" dataDxfId="181"/>
+    <tableColumn id="11" xr3:uid="{E988F274-8E1C-402E-88AB-984923B60C56}" name="運輸実績" dataDxfId="180"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{004FE0F6-E5BB-45B7-A63B-49081E876A76}" name="寝台車_30" displayName="寝台車_30" ref="A3:K6" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6555,7 +6589,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EAD69A26-2974-4053-837D-83178ABB1054}" name="大月_寝台車_1603" displayName="大月_寝台車_1603" ref="A3:K6" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163" tableBorderDxfId="161">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6587,7 +6621,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{845F2B21-DEAA-4CAE-BD62-0011FDB7B5A6}" name="CH東富士_1105" displayName="CH東富士_1105" ref="A3:K6" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6619,7 +6653,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A37A91BA-2141-47FA-86DB-D47F9693DF77}" name="CH東富士_霊柩_1381" displayName="CH東富士_霊柩_1381" ref="A3:K6" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6651,7 +6685,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{528AAB80-EF1B-42AE-90DA-10236EFB50D7}" name="霊柩車_40" displayName="霊柩車_40" ref="A3:K6" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6683,7 +6717,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7F582423-C181-4701-B3A9-F41D6DA3DC75}" name="霊柩車_223" displayName="霊柩車_223" ref="A3:K6" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6715,7 +6749,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{90467275-CB2B-4042-B453-FC09D706222A}" name="東日本セレモニー_2" displayName="東日本セレモニー_2" ref="A3:K6" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86">
   <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -6742,38 +6776,6 @@
     <tableColumn id="9" xr3:uid="{CCFF9B18-E02D-45B0-90C0-84F7BED88572}" name="無料キロ数" dataDxfId="77"/>
     <tableColumn id="10" xr3:uid="{4EA49C8D-E810-42AC-A1D3-F00C62CBAE10}" name="総走行ｋｍ" dataDxfId="76"/>
     <tableColumn id="11" xr3:uid="{002A9D98-5713-4878-95DA-DB9780F3B3BC}" name="運輸実績" dataDxfId="75"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AFE22A0D-FA46-46D6-9FFB-7033D17E58FD}" name="東日本セレモニー_1961" displayName="東日本セレモニー_1961" ref="A3:K6" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A3:K6" xr:uid="{10D7980A-02F4-4DDC-A52D-808C588848A6}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4A673E26-F92A-4223-B3AC-69A15883F006}" name="台数" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{EDEDD639-E2CA-402D-B5B3-021F65781566}" name="支社名" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{E0F00521-4BBA-4D80-9E91-876D7A8DCE92}" name="車輌番号" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{F516BE77-ECCC-4533-9EE0-AB4DE1B84AC3}" name="延実在_x000a_車輌数" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{A88FFFE3-536D-419F-86D8-F7CF2ECF6292}" name="延実働_x000a_車輌数" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{3FD098F5-8FA4-4C4A-BDDC-2CF92D143F3F}" name="稼働率" dataDxfId="65" dataCellStyle="パーセント"/>
-    <tableColumn id="7" xr3:uid="{FB011EF7-24CA-4985-92DD-411DB056B9FC}" name="搬送回数" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{069EA530-DAAE-42CC-9D76-4D8FF60F1515}" name="有料キロ数" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{66F9931E-5F04-417B-8C7B-B983D5569558}" name="無料キロ数" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{900D53FA-7C6A-4077-82EA-5469F3390B77}" name="総走行ｋｍ" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{750CED73-032B-4E83-B122-C173589F46AE}" name="運輸実績" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7065,11 +7067,1547 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73276A4-2B34-4813-BE40-25FF2C90EF45}">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C41D86-632F-474A-BCF5-E77B0FBF2288}">
+  <sheetPr codeName="Sheet131">
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f>'寝台車 29'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>'寝台車 29'!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>寝台車_29[[#This Row],[延実在
+車輌数]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="13">
+        <f>'寝台車 29'!$E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <f>IFERROR(E4/D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <f>'寝台車 29'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="34">
+        <f>'寝台車 29'!$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <f>'寝台車 29'!$I$6</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J13" si="0">SUM(H4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <f>'寝台車 29'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="13" t="e">
+        <f>$D$4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="13">
+        <f>'寝台車 30'!$E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" ref="F5:F16" si="1">IFERROR(E5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <f>'寝台車 30'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <f>'寝台車 30'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <f>'寝台車 30'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <f>'寝台車 30'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1603</v>
+      </c>
+      <c r="D6" s="13" t="e">
+        <f t="shared" ref="D6:D15" si="2">$D$4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="13">
+        <f>大月_寝台車_1603[[#This Row],[延実働
+車輌数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>大月_寝台車_1603[[#This Row],[搬送回数]]</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <f>大月_寝台車_1603[[#This Row],[有料キロ数]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
+        <f>大月_寝台車_1603[[#This Row],[無料キロ数]]</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <f>SUM(H6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f>大月_寝台車_1603[[#This Row],[運輸実績]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1105</v>
+      </c>
+      <c r="D7" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="13">
+        <f>'CH東富士 寝台車 1105'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <f>'CH東富士 寝台車 1105'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <f>'CH東富士 寝台車 1105'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <f>'CH東富士 寝台車 1105'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <f>'CH東富士 寝台車 1105'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1381</v>
+      </c>
+      <c r="D8" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="13">
+        <f>'CH東富士 霊柩車 1381'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <f>IFERROR(E8/D8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>'CH東富士 霊柩車 1381'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <f>'CH東富士 霊柩車 1381'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
+        <f>'CH東富士 霊柩車 1381'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <f>'CH東富士 霊柩車 1381'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="10">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="13">
+        <f>'霊柩車 40'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <f>'霊柩車 40'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="34">
+        <f>'霊柩車 40'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <f>'霊柩車 40'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <f>'霊柩車 40'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10">
+        <v>223</v>
+      </c>
+      <c r="D10" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="13">
+        <f>'霊柩車 223'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <f>'霊柩車 223'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <f>'霊柩車 223'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <f>'霊柩車 223'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f>'霊柩車 223'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="13">
+        <f>'東日本セレモニー 2'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <f>'東日本セレモニー 2'!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <f>'東日本セレモニー 2'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <f>'東日本セレモニー 2'!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f>'東日本セレモニー 2'!K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1961</v>
+      </c>
+      <c r="D12" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="13">
+        <f>'東日本セレモニー 1961'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <f>'東日本セレモニー 1961'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <f>'東日本セレモニー 1961'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
+        <f>'東日本セレモニー 1961'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <f>'東日本セレモニー 1961'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2259</v>
+      </c>
+      <c r="D13" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="13">
+        <f>'東日本セレモニー 2259'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <f>'東日本セレモニー 2259'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="34">
+        <f>'東日本セレモニー 2259'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <f>'東日本セレモニー 2259'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <f>'東日本セレモニー 2259'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2262</v>
+      </c>
+      <c r="D14" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="13">
+        <f>'東日本セレモニー 2262'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <f>IFERROR(E14/D14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <f>'東日本セレモニー 2262'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <f>'東日本セレモニー 2262'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
+        <f>'東日本セレモニー 2262'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f>SUM(H14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <f>'東日本セレモニー 2262'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="35">
+        <v>2380</v>
+      </c>
+      <c r="D15" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="13">
+        <f>'東日本セレモニー 2380'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <f>IFERROR(E15/D15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <f>'東日本セレモニー 2380'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
+        <f>'東日本セレモニー 2380'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="34">
+        <f>'東日本セレモニー 2380'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f>SUM(H15:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <f>'東日本セレモニー 2380'!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="e">
+        <f>SUM(D4:D15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="25">
+        <f>SUM(E4:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <f>SUM(G4:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="36">
+        <f>SUM(H4:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <f>SUM(I4:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <f>SUM(J4:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <f>SUM(K4:K15)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="G5" formula="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD17519-5621-405E-952D-BF7C7236B9F8}">
+  <sheetPr codeName="Sheet16">
+    <tabColor rgb="FF33CAFF"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f>'寝台車 29'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>'寝台車 29'!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1961</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>寝台車_29[[#This Row],[延実在
+車輌数]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="e">
+        <f>E4/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <f>SUM(H4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="e">
+        <f>SUM(D4:D5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>E6/D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="25">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>SUM(H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>SUM(I4:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1366FD9-34D1-418C-8BE5-17C164BC7C3A}">
+  <sheetPr codeName="Sheet17">
+    <tabColor rgb="FF33CAFF"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f>'寝台車 29'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>'寝台車 29'!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2259</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>寝台車_29[[#This Row],[延実在
+車輌数]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="e">
+        <f>E4/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <f>SUM(H4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="e">
+        <f>SUM(D4:D5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>E6/D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="25">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>SUM(H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>SUM(I4:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68423F10-1D42-4AA5-AEF3-1C4F37C59DFF}">
+  <sheetPr codeName="Sheet18">
+    <tabColor rgb="FF33CAFF"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f>'寝台車 29'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>'寝台車 29'!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2262</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>寝台車_29[[#This Row],[延実在
+車輌数]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="e">
+        <f>E4/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <f>SUM(H4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="e">
+        <f>SUM(D4:D5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>E6/D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="25">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>SUM(H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>SUM(I4:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93187F6E-2A12-44CE-B9DB-F68B650CDCAF}">
+  <sheetPr codeName="Sheet19">
+    <tabColor rgb="FF33CAFF"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f>'寝台車 29'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>'寝台車 29'!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2380</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>寝台車_29[[#This Row],[延実在
+車輌数]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="e">
+        <f>E4/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <f>SUM(H4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="e">
+        <f>SUM(D4:D5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>E6/D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="25">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>SUM(H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>SUM(I4:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73276A4-2B34-4813-BE40-25FF2C90EF45}">
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>DAY(EOMONTH(DATE(VALUE(MID(A1,2,LEN(A1)-1))+2018,B1,1),0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="e">
+        <f>E4/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <f>SUM(H4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="e">
+        <f>SUM(D4:D5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>E6/D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="25">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>SUM(H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>SUM(I4:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37C8A2-95B8-4258-982E-EE04EC673809}">
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -7090,11 +8628,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
+      <c r="A1" s="1">
+        <f>'寝台車 29'!A1</f>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>1</v>
+        <f>'寝台車 29'!B1</f>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -7150,19 +8690,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13">
-        <f>DAY(EOMONTH(DATE(VALUE(MID(A1,2,LEN(A1)-1))+2018,B1,1),0))</f>
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="e">
+        <f>寝台車_29[[#This Row],[延実在
+車輌数]]</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -7192,17 +8733,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
@@ -7236,13 +8777,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1366FD9-34D1-418C-8BE5-17C164BC7C3A}">
-  <sheetPr codeName="Sheet17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8DAC67-9E96-454C-8020-31F3175584B4}">
+  <sheetPr codeName="Sheet12">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -7262,13 +8805,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>'寝台車 29'!A1</f>
-        <v>R8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>'寝台車 29'!B1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -7324,20 +8867,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10">
-        <v>2259</v>
-      </c>
-      <c r="D4" s="13">
+        <v>1603</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f>寝台車_29[[#This Row],[延実在
 車輌数]]</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -7367,17 +8910,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
@@ -7411,13 +8954,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68423F10-1D42-4AA5-AEF3-1C4F37C59DFF}">
-  <sheetPr codeName="Sheet18"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F619F0-8599-4F88-A5B0-B48BE5849326}">
+  <sheetPr codeName="Sheet13">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -7437,13 +8982,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>'寝台車 29'!A1</f>
-        <v>R8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>'寝台車 29'!B1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -7499,20 +9044,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10">
-        <v>2262</v>
-      </c>
-      <c r="D4" s="13">
+        <v>1105</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f>寝台車_29[[#This Row],[延実在
 車輌数]]</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -7542,17 +9087,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
@@ -7586,13 +9131,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93187F6E-2A12-44CE-B9DB-F68B650CDCAF}">
-  <sheetPr codeName="Sheet19"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF037A0F-6D75-40B8-A98A-8CD19A088F86}">
+  <sheetPr codeName="Sheet14">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -7612,13 +9159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>'寝台車 29'!A1</f>
-        <v>R8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>'寝台車 29'!B1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -7674,20 +9221,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10">
-        <v>2380</v>
-      </c>
-      <c r="D4" s="13">
+        <v>1381</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f>寝台車_29[[#This Row],[延実在
 車輌数]]</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -7717,17 +9264,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
@@ -7761,666 +9308,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C41D86-632F-474A-BCF5-E77B0FBF2288}">
-  <sheetPr codeName="Sheet131"/>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>'寝台車 29'!A1</f>
-        <v>R8</v>
-      </c>
-      <c r="B1" s="2">
-        <f>'寝台車 29'!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="10">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13">
-        <f>寝台車_29[[#This Row],[延実在
-車輌数]]</f>
-        <v>31</v>
-      </c>
-      <c r="E4" s="13">
-        <f>'寝台車 29'!$E$6</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <f>IFERROR(E4/D4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <f>'寝台車 29'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="34">
-        <f>'寝台車 29'!$H$6</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="34">
-        <f>'寝台車 29'!$I$6</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" ref="J4:J13" si="0">SUM(H4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <f>'寝台車 29'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13">
-        <f>$D$4</f>
-        <v>31</v>
-      </c>
-      <c r="E5" s="13">
-        <f>'寝台車 30'!$E$6</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="33">
-        <f t="shared" ref="F5:F16" si="1">IFERROR(E5/D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <f>'寝台車 30'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <f>'寝台車 30'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="34">
-        <f>'寝台車 30'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <f>'寝台車 30'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1603</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" ref="D6:D15" si="2">$D$4</f>
-        <v>31</v>
-      </c>
-      <c r="E6" s="13">
-        <f>大月_寝台車_1603[[#This Row],[延実働
-車輌数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <f>大月_寝台車_1603[[#This Row],[搬送回数]]</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
-        <f>大月_寝台車_1603[[#This Row],[有料キロ数]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="34">
-        <f>大月_寝台車_1603[[#This Row],[無料キロ数]]</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <f>SUM(H6:I6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <f>大月_寝台車_1603[[#This Row],[運輸実績]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1105</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E7" s="13">
-        <f>'CH東富士 寝台車 1105'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <f>'CH東富士 寝台車 1105'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <f>'CH東富士 寝台車 1105'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
-        <f>'CH東富士 寝台車 1105'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <f>'CH東富士 寝台車 1105'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1381</v>
-      </c>
-      <c r="D8" s="13">
-        <v>30</v>
-      </c>
-      <c r="E8" s="13">
-        <f>'CH東富士 霊柩車 1381'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <f>IFERROR(E8/D8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <f>'CH東富士 霊柩車 1381'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <f>'CH東富士 霊柩車 1381'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
-        <f>'CH東富士 霊柩車 1381'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <f>'CH東富士 霊柩車 1381'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="10">
-        <v>40</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E9" s="13">
-        <f>'霊柩車 40'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <f>'霊柩車 40'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <f>'霊柩車 40'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
-        <f>'霊柩車 40'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <f>'霊柩車 40'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="10">
-        <v>223</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E10" s="13">
-        <f>'霊柩車 223'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <f>'霊柩車 223'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <f>'霊柩車 223'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="34">
-        <f>'霊柩車 223'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <f>'霊柩車 223'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E11" s="13">
-        <f>'東日本セレモニー 2'!E4</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f>'東日本セレモニー 2'!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <f>'東日本セレモニー 2'!H4</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <f>'東日本セレモニー 2'!I4</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <f>'東日本セレモニー 2'!K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1961</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E12" s="13">
-        <f>'東日本セレモニー 1961'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <f>'東日本セレモニー 1961'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <f>'東日本セレモニー 1961'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <f>'東日本セレモニー 1961'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <f>'東日本セレモニー 1961'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2259</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E13" s="13">
-        <f>'東日本セレモニー 2259'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <f>'東日本セレモニー 2259'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <f>'東日本セレモニー 2259'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <f>'東日本セレモニー 2259'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <f>'東日本セレモニー 2259'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2262</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E14" s="13">
-        <f>'東日本セレモニー 2262'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
-        <f>IFERROR(E14/D14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <f>'東日本セレモニー 2262'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f>'東日本セレモニー 2262'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <f>'東日本セレモニー 2262'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f>SUM(H14:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <f>'東日本セレモニー 2262'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="35">
-        <v>2380</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E15" s="13">
-        <f>'東日本セレモニー 2380'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
-        <f>IFERROR(E15/D15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <f>'東日本セレモニー 2380'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <f>'東日本セレモニー 2380'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="34">
-        <f>'東日本セレモニー 2380'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <f>SUM(H15:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <f>'東日本セレモニー 2380'!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25">
-        <f>SUM(D4:D15)</f>
-        <v>371</v>
-      </c>
-      <c r="E16" s="25">
-        <f>SUM(E4:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <f>SUM(G4:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
-        <f>SUM(H4:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <f>SUM(I4:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="27">
-        <f>SUM(J4:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="28">
-        <f>SUM(K4:K15)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="G5" formula="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37C8A2-95B8-4258-982E-EE04EC673809}">
-  <sheetPr codeName="Sheet9"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11126A7D-A58A-49EA-8687-08A46F5138B2}">
+  <sheetPr codeName="Sheet10">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -8440,13 +9336,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>'寝台車 29'!A1</f>
-        <v>R8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>'寝台車 29'!B1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -8505,17 +9401,17 @@
         <v>15</v>
       </c>
       <c r="C4" s="10">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f>寝台車_29[[#This Row],[延実在
 車輌数]]</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -8545,17 +9441,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
@@ -8589,13 +9485,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8DAC67-9E96-454C-8020-31F3175584B4}">
-  <sheetPr codeName="Sheet12"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C7F622-2355-4C92-B689-8C2955F9C704}">
+  <sheetPr codeName="Sheet11">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -8615,13 +9513,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>'寝台車 29'!A1</f>
-        <v>R8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>'寝台車 29'!B1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -8677,20 +9575,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10">
-        <v>1603</v>
-      </c>
-      <c r="D4" s="13">
+        <v>223</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f>寝台車_29[[#This Row],[延実在
 車輌数]]</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -8720,17 +9618,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
@@ -8764,186 +9662,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F619F0-8599-4F88-A5B0-B48BE5849326}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>'寝台車 29'!A1</f>
-        <v>R8</v>
-      </c>
-      <c r="B1" s="2">
-        <f>'寝台車 29'!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1105</v>
-      </c>
-      <c r="D4" s="13">
-        <f>寝台車_29[[#This Row],[延実在
-車輌数]]</f>
-        <v>31</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <f>E4/D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
-        <f>SUM(H4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
-        <f>SUM(D4:D5)</f>
-        <v>31</v>
-      </c>
-      <c r="E6" s="25">
-        <f>SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E6/D6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f>SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f>SUM(H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>SUM(I4:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
-        <f>SUM(K4:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF037A0F-6D75-40B8-A98A-8CD19A088F86}">
-  <sheetPr codeName="Sheet14"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3E5FA-6839-4C85-BC7D-EDFF0DB11005}">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF33CAFF"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -8963,13 +9690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>'寝台車 29'!A1</f>
-        <v>R8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>'寝台車 29'!B1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -9025,20 +9752,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10">
-        <v>1381</v>
-      </c>
-      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f>寝台車_29[[#This Row],[延実在
 車輌数]]</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="F4" s="14" t="e">
         <f>E4/D4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15"/>
@@ -9068,717 +9795,17 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>SUM(D4:D5)</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="25">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="e">
         <f>E6/D6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f>SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f>SUM(H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>SUM(I4:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
-        <f>SUM(K4:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11126A7D-A58A-49EA-8687-08A46F5138B2}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>'寝台車 29'!A1</f>
-        <v>R8</v>
-      </c>
-      <c r="B1" s="2">
-        <f>'寝台車 29'!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10">
-        <v>40</v>
-      </c>
-      <c r="D4" s="13">
-        <f>寝台車_29[[#This Row],[延実在
-車輌数]]</f>
-        <v>31</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <f>E4/D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
-        <f>SUM(H4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
-        <f>SUM(D4:D5)</f>
-        <v>31</v>
-      </c>
-      <c r="E6" s="25">
-        <f>SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E6/D6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f>SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f>SUM(H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>SUM(I4:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
-        <f>SUM(K4:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C7F622-2355-4C92-B689-8C2955F9C704}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>'寝台車 29'!A1</f>
-        <v>R8</v>
-      </c>
-      <c r="B1" s="2">
-        <f>'寝台車 29'!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10">
-        <v>223</v>
-      </c>
-      <c r="D4" s="13">
-        <f>寝台車_29[[#This Row],[延実在
-車輌数]]</f>
-        <v>31</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <f>E4/D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
-        <f>SUM(H4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
-        <f>SUM(D4:D5)</f>
-        <v>31</v>
-      </c>
-      <c r="E6" s="25">
-        <f>SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E6/D6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f>SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f>SUM(H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>SUM(I4:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
-        <f>SUM(K4:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3E5FA-6839-4C85-BC7D-EDFF0DB11005}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>'寝台車 29'!A1</f>
-        <v>R8</v>
-      </c>
-      <c r="B1" s="2">
-        <f>'寝台車 29'!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <f>寝台車_29[[#This Row],[延実在
-車輌数]]</f>
-        <v>31</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <f>E4/D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
-        <f>SUM(H4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
-        <f>SUM(D4:D5)</f>
-        <v>31</v>
-      </c>
-      <c r="E6" s="25">
-        <f>SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E6/D6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f>SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f>SUM(H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>SUM(I4:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
-        <f>SUM(K4:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD17519-5621-405E-952D-BF7C7236B9F8}">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>'寝台車 29'!A1</f>
-        <v>R8</v>
-      </c>
-      <c r="B1" s="2">
-        <f>'寝台車 29'!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1961</v>
-      </c>
-      <c r="D4" s="13">
-        <f>寝台車_29[[#This Row],[延実在
-車輌数]]</f>
-        <v>31</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <f>E4/D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
-        <f>SUM(H4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
-        <f>SUM(D4:D5)</f>
-        <v>31</v>
-      </c>
-      <c r="E6" s="25">
-        <f>SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E6/D6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="25">
         <f>SUM(G4:G5)</f>
